--- a/TeachingBook.xlsx
+++ b/TeachingBook.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinasang/Sherry/Teaching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D543B5FD-A293-BD42-A612-A2186A9DDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6566A-4692-AF4E-920B-4DCE01A2A850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="520" windowWidth="28040" windowHeight="16300" xr2:uid="{7ACE401A-B09B-5B49-A3B6-76685230FFB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{7ACE401A-B09B-5B49-A3B6-76685230FFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Logger" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Larry</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Stephen (steven)</t>
   </si>
@@ -46,56 +42,61 @@
     <t>Caleb</t>
   </si>
   <si>
-    <t>0/0 classes</t>
-  </si>
-  <si>
     <t>Shannon</t>
   </si>
   <si>
     <t>Baron</t>
   </si>
   <si>
-    <t>week 5 start at slide 22</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>0/6 h</t>
-  </si>
-  <si>
-    <t>1.5/5</t>
-  </si>
-  <si>
-    <t>need new slides</t>
-  </si>
-  <si>
-    <t>week 6 arraylistexample line 17 done, slide 20 need to introduce methods</t>
-  </si>
-  <si>
-    <t>2/6 h</t>
-  </si>
-  <si>
-    <t>week 6 slide 21 need tabulation for lis</t>
-  </si>
-  <si>
-    <t>finished week 6 slide 10</t>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>tiled</t>
+  </si>
+  <si>
+    <t>https://dmoj.ca/problem/aac1p1</t>
+  </si>
+  <si>
+    <t>https://dmoj.ca/problem/mccc3j1</t>
+  </si>
+  <si>
+    <t>https://dmoj.ca/problem/mccc3j2</t>
+  </si>
+  <si>
+    <t>javafx 32</t>
+  </si>
+  <si>
+    <t>finished bellman-ford, talk about subset</t>
   </si>
   <si>
     <t>1/3 h</t>
   </si>
   <si>
-    <t>1/3 class</t>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>0/1h</t>
+  </si>
+  <si>
+    <t>2/4 h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,14 +119,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,78 +442,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9464889-0618-E34E-9714-4646B00E5EDC}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="241" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>8</v>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{CD169683-B68D-A24B-8016-8E883CA4492F}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{880DF02A-BDCE-6F44-B562-C370AA087B7B}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{8F4E411A-6C7C-B24D-873A-E3300D411AB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>